--- a/docs/budget/budget.xlsx
+++ b/docs/budget/budget.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\2023_winter\Capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arshd\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74DCBF77-AA49-440D-A82C-AECD9F8F8D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6F0C7B-CDC2-4724-AC83-71308068067E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3885" windowWidth="29040" windowHeight="15840" xr2:uid="{6CE4F409-7FC5-4F24-8A2D-94657F38427F}"/>
+    <workbookView xWindow="-98" yWindow="503" windowWidth="24496" windowHeight="15794" xr2:uid="{6CE4F409-7FC5-4F24-8A2D-94657F38427F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>Total</t>
   </si>
@@ -96,6 +96,54 @@
   </si>
   <si>
     <t>Wiring</t>
+  </si>
+  <si>
+    <t>Josh</t>
+  </si>
+  <si>
+    <t>Arsh</t>
+  </si>
+  <si>
+    <t>Order 1</t>
+  </si>
+  <si>
+    <t>Resistors, Capacitors + Shipping</t>
+  </si>
+  <si>
+    <t>Dollarstor 2xchessboards</t>
+  </si>
+  <si>
+    <t>Order 3</t>
+  </si>
+  <si>
+    <t>Wires</t>
+  </si>
+  <si>
+    <t>Solder</t>
+  </si>
+  <si>
+    <t>Magnets for $5.5x5</t>
+  </si>
+  <si>
+    <t>Poster from staples</t>
+  </si>
+  <si>
+    <t>Total Project cost</t>
+  </si>
+  <si>
+    <t>Each person's share</t>
+  </si>
+  <si>
+    <t>Alex to Josh</t>
+  </si>
+  <si>
+    <t>Alex to Arsh</t>
+  </si>
+  <si>
+    <t>Rup to Josh</t>
+  </si>
+  <si>
+    <t>Jonathan to Josh</t>
   </si>
 </sst>
 </file>
@@ -447,167 +495,331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB28904-C07F-4722-B42C-F83F9AFAF6AD}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B2">
-        <f>SUM(C2:F2)</f>
+      <c r="B3">
+        <f>SUM(C3:F3)</f>
         <v>117.96</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>48.4</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>39.950000000000003</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>17.88</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>11.73</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <f t="shared" ref="B3:B12" si="0">SUM(C4:F4)</f>
+      <c r="B5">
+        <f t="shared" ref="B5:B13" si="0">SUM(C5:F5)</f>
         <v>102.35</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>81.67</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>20.68</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <f t="shared" si="0"/>
         <v>44.27</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>44.27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <f t="shared" si="0"/>
         <v>69.73</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>69.73</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <f t="shared" si="0"/>
         <v>45.88</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>42.39</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>3.49</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <f t="shared" si="0"/>
         <v>65.47</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>26.19</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>39.28</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B13">
-        <f>SUM(B2:B12)</f>
+      <c r="B14">
+        <f>SUM(B3:B13)</f>
         <v>445.65999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <f>SUM(C19:F19)</f>
+        <v>33</v>
+      </c>
+      <c r="C19">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ref="B20:B28" si="1">SUM(C21:F21)</f>
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="C23">
+        <v>25</v>
+      </c>
+      <c r="D23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="C25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="C27">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <f>SUM(B19:B27)</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <f>B14+B28</f>
+        <v>577.66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <f>(C31/5)</f>
+        <v>115.532</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
